--- a/вопросы.xlsx
+++ b/вопросы.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\out\metro-security-win32-x64\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBFE5BB-8DFA-4DAB-8FB8-D984E9C11E2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F93AF9-90B2-46E5-8E9B-24F4ADC58F4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Общие" sheetId="1" r:id="rId1"/>
-    <sheet name="Дополнительные" sheetId="2" r:id="rId2"/>
+    <sheet name="Дополнительные" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>question</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Заместитель директора по эксплуатации – Полищук Вадим Николаевич.</t>
   </si>
   <si>
-    <t>Заместитель директора по экономике – Розум Ирина Олеговна.</t>
-  </si>
-  <si>
     <t>Руководитель - Петров И.А.</t>
   </si>
   <si>
@@ -115,13 +112,43 @@
     <t>пассажир - физическое лицо, не причастное к управлению транспортным средством городского электрического транспорта или транспортным средством метрополитена и перевозимое в них на основании договора перевозки пассажира городским электрическим транспортом в регулярном сообщении или договора фрахтования для перевозки пассажиров городским электрическим транспортом либо договора перевозки пассажира метрополитеном;</t>
   </si>
   <si>
-    <t>метрополитен - вид транспорта, представляющий собой совокупность транспортных средств метрополитена и коммуникаций метрополитена.</t>
-  </si>
-  <si>
     <t>жетон - справка на бесплатный проезд</t>
   </si>
   <si>
-    <t>Тестовый вопрос</t>
+    <t>TRUE_7</t>
+  </si>
+  <si>
+    <t>TRUE_8</t>
+  </si>
+  <si>
+    <t>TRUE_9</t>
+  </si>
+  <si>
+    <t>TRUE_10</t>
+  </si>
+  <si>
+    <t>FALSE_6</t>
+  </si>
+  <si>
+    <t>FALSE_7</t>
+  </si>
+  <si>
+    <t>FALSE_8</t>
+  </si>
+  <si>
+    <t>FALSE_9</t>
+  </si>
+  <si>
+    <t>FALSE_10</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>Правильный ответ</t>
+  </si>
+  <si>
+    <t>Неправильный ответ</t>
   </si>
 </sst>
 </file>
@@ -511,21 +538,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7FBC5-08C7-4887-B12D-6BA07F591FA8}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="15.77734375" style="2" customWidth="1"/>
-    <col min="8" max="12" width="15.77734375" style="3" customWidth="1"/>
-    <col min="13" max="20" width="25.77734375" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="2" customWidth="1"/>
+    <col min="12" max="21" width="15.77734375" style="3" customWidth="1"/>
+    <col min="22" max="29" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -548,22 +575,49 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -582,48 +636,42 @@
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -633,19 +681,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE85411C-6FC5-4874-9317-A4A01BB779FA}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA71CFB-B277-48E0-81AB-AE11C7CAAB2E}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="2" customWidth="1"/>
+    <col min="12" max="21" width="15.77734375" style="3" customWidth="1"/>
+    <col min="22" max="29" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -668,70 +719,61 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/вопросы.xlsx
+++ b/вопросы.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\out\metro-security-win32-x64\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F93AF9-90B2-46E5-8E9B-24F4ADC58F4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A1FFF2-87A3-44EA-949C-174BF0F39B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Общие" sheetId="1" r:id="rId1"/>
-    <sheet name="Дополнительные" sheetId="3" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="3" sheetId="4" r:id="rId3"/>
+    <sheet name="4" sheetId="5" r:id="rId4"/>
+    <sheet name="5" sheetId="6" r:id="rId5"/>
+    <sheet name="6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="47">
   <si>
     <t>question</t>
   </si>
@@ -149,6 +153,24 @@
   </si>
   <si>
     <t>Неправильный ответ</t>
+  </si>
+  <si>
+    <t>Должностные инструкции</t>
+  </si>
+  <si>
+    <t>Законодательные основы деятельности Службы безопасности ГП «Минский метрополитен»</t>
+  </si>
+  <si>
+    <t>Обеспечение пропускного и внутриобъектового режимов</t>
+  </si>
+  <si>
+    <t>Взаимодействие организаций и структурных подразделений</t>
+  </si>
+  <si>
+    <t>Использование специальных (технических) средств</t>
+  </si>
+  <si>
+    <t>Правила технической эксплуатации (ПТЭ)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,13 +245,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +568,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7FBC5-08C7-4887-B12D-6BA07F591FA8}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="2" customWidth="1"/>
+    <col min="12" max="21" width="15.77734375" style="3" customWidth="1"/>
+    <col min="22" max="29" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA71CFB-B277-48E0-81AB-AE11C7CAAB2E}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,126 +749,105 @@
     <col min="22" max="29" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -680,12 +856,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA71CFB-B277-48E0-81AB-AE11C7CAAB2E}">
-  <dimension ref="A1:U2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E515BD-4012-4800-B4F3-3B33AF5A258F}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="2" customWidth="1"/>
+    <col min="12" max="21" width="15.77734375" style="3" customWidth="1"/>
+    <col min="22" max="29" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81FC689-66BF-41CF-9B5A-271A3862D9AA}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,79 +993,350 @@
     <col min="22" max="29" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E33571-9E83-4C52-B1D8-206E92DA2133}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="2" customWidth="1"/>
+    <col min="12" max="21" width="15.77734375" style="3" customWidth="1"/>
+    <col min="22" max="29" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9E4B7D-08F8-4D21-BD89-A2A2ED670C30}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="2" customWidth="1"/>
+    <col min="12" max="21" width="15.77734375" style="3" customWidth="1"/>
+    <col min="22" max="29" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/вопросы.xlsx
+++ b/вопросы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A1FFF2-87A3-44EA-949C-174BF0F39B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E08AC0-8613-4B5B-8F9D-81FFB0A78ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="50">
   <si>
     <t>question</t>
   </si>
@@ -68,57 +68,6 @@
     <t>FALSE_5</t>
   </si>
   <si>
-    <t>Должность, фамилия, имя, отчество руководителей Минского метрополитена и службы безопасности.</t>
-  </si>
-  <si>
-    <t>Директор - Сотников Владимир Тимофеевич.</t>
-  </si>
-  <si>
-    <t>Главный инженер – Шестаков Игорь Владимирович.</t>
-  </si>
-  <si>
-    <t>Заместитель директора по персоналу, идеологической и социальной работе - Воробьёв Юрий Николаевич.</t>
-  </si>
-  <si>
-    <t>Заместитель директора по безопасности – Плис Вадим Викторович.</t>
-  </si>
-  <si>
-    <t>Заместитель директора по эксплуатации – Полищук Вадим Николаевич.</t>
-  </si>
-  <si>
-    <t>Руководитель - Петров И.А.</t>
-  </si>
-  <si>
-    <t>В отношении кого запрещается применять специальные средства? (ст.19 Инструкции «О применении специальных средств и физической силы в ГП «Минский метрополитен» от 28 ноября 2017 года).</t>
-  </si>
-  <si>
-    <t>Запрещается применять специальные средства в отношении женщин с видимыми признаками беременности, лиц с явными признаками инвалидности, несовершеннолетних, когда их возраст очевиден или известен, за исключением случаев совершения указанными лицами вооруженного или группового нападения на работников службы безопасности (или) лиц, находящихся на охраняемом объекте.</t>
-  </si>
-  <si>
-    <t>Против всех</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дать определение основным терминам применяемым в Законе РБ «О городском электрическом транспорте и метрополитене» от 5 мая 2014 года:  городской электрический транспорт; жетон; коммуникации метрополитена; линии метрополитена; пассажир; метрополитен (ст.1 Закона РБ «О городском электрическом транспорте и метрополитене» от 5 мая 2014 года). </t>
-  </si>
-  <si>
-    <t>городской электрический транспорт - вид транспорта, представляющий собой совокупность троллейбусов, трамваев (далее - транспортные средства городского электрического транспорта) и коммуникаций городского электрического транспорта;</t>
-  </si>
-  <si>
-    <t>жетон - проездной документ, используемый в метрополитене;</t>
-  </si>
-  <si>
-    <t>коммуникации метрополитена - линии метрополитена, а также сооружения, предназначенные для хранения, технического обслуживания и ремонта электропоездов метрополитена (далее - транспортные средства метрополитена);</t>
-  </si>
-  <si>
-    <t>линии метрополитена - рельсовые пути, иные сооружения и устройства, изолированные от дорог, улиц и проездов городов (населенных пунктов), имеющие преимущественно подземное расположение и используемые при выполнении перевозок пассажиров метрополитеном;</t>
-  </si>
-  <si>
-    <t>пассажир - физическое лицо, не причастное к управлению транспортным средством городского электрического транспорта или транспортным средством метрополитена и перевозимое в них на основании договора перевозки пассажира городским электрическим транспортом в регулярном сообщении или договора фрахтования для перевозки пассажиров городским электрическим транспортом либо договора перевозки пассажира метрополитеном;</t>
-  </si>
-  <si>
-    <t>жетон - справка на бесплатный проезд</t>
-  </si>
-  <si>
     <t>TRUE_7</t>
   </si>
   <si>
@@ -171,6 +120,66 @@
   </si>
   <si>
     <t>Правила технической эксплуатации (ПТЭ)</t>
+  </si>
+  <si>
+    <t>спланированный комплекс режимных, технических и других мер исключительно реализуемых самостоятельно руководителями структурных подразделений метрополитена на закрепленных за ними объектах для минимизации последствий терроризма.</t>
+  </si>
+  <si>
+    <t>служебная деятельность подразделений службы безопасности метрополитена для минимизации последствий терроризма после террористической атаки на объекты метрополитена.</t>
+  </si>
+  <si>
+    <t>совокупность организационных, правовых, охранных, режимных, инженерно-технических и других мер, принимаемых метрополитеном в пределах компетенции в целях предупреждения актов терроризма и минимизации их последствий.</t>
+  </si>
+  <si>
+    <t>Дайте определение «ЗОНА ОГРАНИЧЕННОГО ДОСТУПА» в ГП Минский метрополитен»</t>
+  </si>
+  <si>
+    <t>территория, здание, сооружение, помещение (или их совокупность) метрополитена, доступ к которым разрешен исключительно работникам метрополитена и иным лицам, обеспечивающим функционирование данного объекта или его части, расположенной в этой зоне.</t>
+  </si>
+  <si>
+    <t>четко огороженная световыми приборами и пиктограммами часть территории объектов метрополитена, доступ к которым разрешен исключительно работникам метрополитена.</t>
+  </si>
+  <si>
+    <t>территория, здание, сооружение, помещение (или их совокупность) станций метрополитена, доступ на которые разрешен работникам метрополитена для обеспечения их функционирования.</t>
+  </si>
+  <si>
+    <t>Дайте определение «ИНЖЕНЕРНО-ТЕХНИЧЕСКИЕ СРЕДСТВА ЗАЩИТЫ» (ИТСЗ) метрополитена</t>
+  </si>
+  <si>
+    <t>средства, применяемые для обеспечения необходимого механического противодействия противоправным посягательствам на объекты метрополитена (защитные кабины, двери, люки, стекла, решетки, ставни, жалюзи, замки, запирающие устройства, сейфы, механические ограждения и преграды и иные средства).</t>
+  </si>
+  <si>
+    <t>средства, применяемые для обеспечения защиты объектов метрополитена от противоправных посягательств на него (стекла, решетки, ставни, жалюзи, преграды, аварийные кнопки вызова сотрудником МВД).</t>
+  </si>
+  <si>
+    <t>средства, применяемые для обеспечения защиты сотрудников службы безопасности, находящихся на объектах метрополитена от противоправных посягательств на него (защитные кабины, двери, люки, стекла, решетки, ставни, жалюзи, замки, запирающие устройства, сейфы, механические ограждения и преграды и иные средства).</t>
+  </si>
+  <si>
+    <t>Дайте определение «КРИТИЧЕСКИЕ ЭЛЕМЕНТЫ МЕТРОПОЛИТЕНА»</t>
+  </si>
+  <si>
+    <t>помещения, здания и сооружения метрополитена ограниченного доступа, нахождение в которых разрешено исключительно работникам метрополитена по указанию руководства соответствующих служб, для обеспечения функционирование данного объекта или его части, расположенной в этой зоне.</t>
+  </si>
+  <si>
+    <t>служебные помещения дежурного по станции (ДСП) и дежурного но посту централизации (ДСЦП) метрополитена с установленным в них контрольно-сигнализационным оборудованием.</t>
+  </si>
+  <si>
+    <t>Дайте определение «УЯЗВИМЫЕ МЕСТА МЕТРОПОЛИТЕНА»</t>
+  </si>
+  <si>
+    <t>территории, участки, зоны метрополитена, наиболее подверженные действиям со стороны нарушителя безопасности метрополитена.</t>
+  </si>
+  <si>
+    <t>территории, участки, зоны метрополитена, наиболее уязвимые в случае чрезвычайных ситуаций природного и техногенного характера.</t>
+  </si>
+  <si>
+    <t>территории, участки, зоны метрополитена, на которых наиболее часто выходят из строя системы сигнализации и запирающие устройства.</t>
+  </si>
+  <si>
+    <t>территории, участки, зоны метрополитена, на которые систематически пытаются проникнуть нарушителя безопасности метрополитена.</t>
+  </si>
+  <si>
+    <t>Дайте определение «АНТИТЕРРОРИСТИЧЕСКАЯ ЗАЩИТА» в ГП «Минский метрополитен»</t>
   </si>
 </sst>
 </file>
@@ -568,9 +577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7FBC5-08C7-4887-B12D-6BA07F591FA8}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -582,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -628,16 +639,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -655,76 +666,92 @@
         <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +778,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -797,16 +824,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -824,30 +851,30 @@
         <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -918,16 +945,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -945,30 +972,30 @@
         <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +1022,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1041,16 +1068,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -1068,30 +1095,30 @@
         <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1164,16 +1191,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -1191,30 +1218,30 @@
         <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9E4B7D-08F8-4D21-BD89-A2A2ED670C30}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1241,7 +1268,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1287,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -1314,30 +1341,30 @@
         <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/вопросы.xlsx
+++ b/вопросы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E08AC0-8613-4B5B-8F9D-81FFB0A78ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDDFFB5-1AC1-44DA-A9CD-404D5CA2CF45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>Правила технической эксплуатации (ПТЭ)</t>
   </si>
   <si>
-    <t>спланированный комплекс режимных, технических и других мер исключительно реализуемых самостоятельно руководителями структурных подразделений метрополитена на закрепленных за ними объектах для минимизации последствий терроризма.</t>
-  </si>
-  <si>
     <t>служебная деятельность подразделений службы безопасности метрополитена для минимизации последствий терроризма после террористической атаки на объекты метрополитена.</t>
   </si>
   <si>
@@ -179,7 +176,10 @@
     <t>территории, участки, зоны метрополитена, на которые систематически пытаются проникнуть нарушителя безопасности метрополитена.</t>
   </si>
   <si>
-    <t>Дайте определение «АНТИТЕРРОРИСТИЧЕСКАЯ ЗАЩИТА» в ГП «Минский метрополитен»</t>
+    <t>Дайте определение «АНТИТЕРРОРИСТИЧЕСКАЯ ЗАЩИТА» в ГП «Минский метрополитен» &lt;img src="1.jpg" /&gt;</t>
+  </si>
+  <si>
+    <t>спланированный комплекс режимных, технических и других мер исключительно реализуемых самостоятельно руководителями структурных подразделений метрополитена на закрепленных за ними объектах для минимизации последствий терроризма. &lt;img src="1.jpg" /&gt;</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,75 +683,75 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/вопросы.xlsx
+++ b/вопросы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDDFFB5-1AC1-44DA-A9CD-404D5CA2CF45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDCAEB6-5E82-4B22-A5F9-E9E0161B033D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
   <si>
     <t>question</t>
   </si>
@@ -176,10 +176,217 @@
     <t>территории, участки, зоны метрополитена, на которые систематически пытаются проникнуть нарушителя безопасности метрополитена.</t>
   </si>
   <si>
-    <t>Дайте определение «АНТИТЕРРОРИСТИЧЕСКАЯ ЗАЩИТА» в ГП «Минский метрополитен» &lt;img src="1.jpg" /&gt;</t>
-  </si>
-  <si>
-    <t>спланированный комплекс режимных, технических и других мер исключительно реализуемых самостоятельно руководителями структурных подразделений метрополитена на закрепленных за ними объектах для минимизации последствий терроризма. &lt;img src="1.jpg" /&gt;</t>
+    <t>спланированный комплекс режимных, технических и других мер исключительно реализуемых самостоятельно руководителями структурных подразделений метрополитена на закрепленных за ними объектах для минимизации последствий терроризма.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дайте определение «АНТИТЕРРОРИСТИЧЕСКАЯ ЗАЩИТА» в ГП «Минский метрополитен» </t>
+  </si>
+  <si>
+    <t>Дайте определение «РАБОТНИКИ МЕТРОПОЛИТЕНА»?</t>
+  </si>
+  <si>
+    <t>Работники, обеспечивающие функционирование метрополитена в соответствии с контрактом (трудовым договором), заключенным с нанимателем.</t>
+  </si>
+  <si>
+    <t>Работники, с которыми заключён контракт (трудовой договор), и иные лица. привлекаемые для обеспечения функционирования метрополитена.</t>
+  </si>
+  <si>
+    <t>Работники, обеспечивающие функционирование метрополитена в соответствии с контрактом (трудовым договором), заключенным с нанимателем и нами сторонними организациями в интересах метрополитена.</t>
+  </si>
+  <si>
+    <t>Работники, обеспечивающие функционирование метрополитена в соответствии с контрактом (трудовым договором), заключенным с нанимателем, а также лица проходящие отбор на конкурсной основе для работы в метрополитене.</t>
+  </si>
+  <si>
+    <t>Дайте определение «СИСТЕМА ОХРАНЫ</t>
+  </si>
+  <si>
+    <t>совокупность совместно действующих средств охраны, установленных на объектах метрополитена и объединенных системой инженерных сетей и коммуникаций (системы тревожной сигнализации, передачи извещений, контроля и управления доступом, телевизионные системы видеонаблюдения и иные системы).</t>
+  </si>
+  <si>
+    <t>совокупность действия сотрудников службы безопасности по использованию действующих средств охраны установленных на объектах метрополитена (системы тревожной сигнализации, передачи извещений, контроля и управления доступом, телевизионные системы видеонаблюдения и иные системы).</t>
+  </si>
+  <si>
+    <t>совокупность применяемых средств для обеспечения необходимого противодействия противоправным посягательствам на объекты метрополитена (защитные кабины, двери, люки, стекла, решетки, ставни, жалюзи, замки, запирающие устройства, сейфы, механические ограждения и преграды и иные средства).</t>
+  </si>
+  <si>
+    <t>совокупность совместных действий инспекторского состава дистанций охраны, участка оперативного реагирования и диспетчерского участка службы безопасности по выявлению лиц имеющих намерение совершить на объекте метрополитена акт терроризма либо иные противоправные посягательства, которые могут привести к нарушению нормального функционирования метрополитена, его повреждению или к аварии на нем, а также лиц, оказывающих содействие в этом.</t>
+  </si>
+  <si>
+    <t>Дайте определение «НАРУШИТЕЛЬ»?</t>
+  </si>
+  <si>
+    <t>физическое лицо, совершившее либо имеющее намерение совершить на объекте метрополитена акт терроризма либо иные противоправные посягательства, которые могут привести к нарушению нормального функционирования метрополитена, его повреждению или к аварии на нем, а также лицо, оказывающее содействие в этом.</t>
+  </si>
+  <si>
+    <t>физическое лицо, совершившее либо имеющее намерение совершить на объекте метрополитена противоправные действия, которые могут привести к нарушению нормального функционирования метрополитена, его повреждению или к аварии на нем, а также лицо, оказывающее содействие в этом.</t>
+  </si>
+  <si>
+    <t>физическое лицо явно игнорирующее правила перевозки пассажиров и не выполняющее требования сотрудников службы безопасности метрополитена.</t>
+  </si>
+  <si>
+    <t>физическое лицо пытающее осуществить проход к платформе станции через автоматический контрольный пункт по входу (АКП) без полнотой оплаты проезда и провоза багажа.</t>
+  </si>
+  <si>
+    <t>Дайте определение «ПОСЕТИТЕЛИ МЕТРОПОЛИТЕНА»?</t>
+  </si>
+  <si>
+    <t>физические лица, не являющиеся работниками метрополитена, находящиеся на его объектах в связи с особенностями его назначения и функционирования.</t>
+  </si>
+  <si>
+    <t>физические лица, прибывшие кратковременно на объекты метрополитена и не пользующиеся подвижным составом метрополитена.</t>
+  </si>
+  <si>
+    <t>физические лица, являющиеся работниками метрополитена, находящиеся на его объектах в связи с особенностями его назначения и функционирования.</t>
+  </si>
+  <si>
+    <t>физические лица, не являющиеся работниками метрополитена, не допущенные сотрудниками службы безопасности к проходу на платформы станций метрополитена по тем или иным причинам.</t>
+  </si>
+  <si>
+    <t>Укажите, какова ОСНОВНАЯ ЦЕЛЬ АНТИТЕРРОРИСТИЧЕСКОЙ ЗАЩИТЫ МЕТРОПОЛИТЕНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Целью антитеррористической защиты метрополитена является недопущение совершения на объектах метрополитена актов терроризма. </t>
+  </si>
+  <si>
+    <t>Целью антитеррористической защиты метрополитена является недопущение совершения актов терроризма в отношении сотрудников метрополитена.</t>
+  </si>
+  <si>
+    <t>Целью антитеррористической защиты метрополитена является недопущение совершения актов терроризма в отношении территории, зданий, сооружений и помещений (или их совокупность) метрополитена.</t>
+  </si>
+  <si>
+    <t>Укажите, каковы «ЗАДАЧИ АНТИТЕРРОРИСТИЧЕСКОЙ ЗАЩИТЫ МЕТРОПОЛИТЕНА»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предупреждение на объектах метрополитена актов терроризма; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">своевременное обнаружение признаков совершения актов терроризма на метрополитене; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">пресечение в пределах компетенции актов терроризма на метрополитене, в том числе задержание лиц, причастных к их подготовке или совершению; </t>
+  </si>
+  <si>
+    <t>минимизация последствий актов терроризма;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">документирование на объектах метрополитена актов терроризма; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">при выявлении признаков совершения актов терроризма на метрополитене, организация срочной эвакуации пассажиров и работников метрополитена; </t>
+  </si>
+  <si>
+    <t>минимизация несанкционированного (преждевременного) освещения последствия совершенного акта терроризма на объектах метрополитена в средствах массовой информации;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выявление и документирование факта участия лица в подготовке и совершении акта терроризма на объектах метрополитена; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">при совершения актов терроризма на объектах метрополитена, выполняет указания диспетчера диспетчерского участка службы безопасности по минимизации его последствий; </t>
+  </si>
+  <si>
+    <t>по указанию диспетчера диспетчерского участка службы безопасности, подготовка акта осмотра места совершения террористического акта;</t>
+  </si>
+  <si>
+    <t>Укажите, что ПОДЛЕЖИТ АНТИТЕРРОРИСТИЧЕСКОЙ ЗАЩИТЕ НА ОБЪЕКТАХ МЕТРОПОЛИТЕНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">критические элементы; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">зоны ограниченного доступа; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">уязвимые места; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">работники метрополитена; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">посетители (пассажиры) метрополитена; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">оборудование метрополитена; </t>
+  </si>
+  <si>
+    <t>личные вещи посетителей (пассажиров) метрополитена;</t>
+  </si>
+  <si>
+    <t>документация дежурного по станции (ДСП) и дежурного но посту централизации (ДСЦП) метрополитена.</t>
+  </si>
+  <si>
+    <t>Укажите, на основании решения какого должностного лица в метрополитене утверждается «ПЕРЕЧЕНЬ КРИТИЧЕСКИХ ЭЛЕМЕНТОВ И ЗОН ОГРАНИЧЕННОГО ДОСТУПА МЕТРОПОЛИТЕНА»</t>
+  </si>
+  <si>
+    <t>Перечень критических элементов и зон ограниченного доступа метрополитена утверждается приказом директора метрополитена;</t>
+  </si>
+  <si>
+    <t>дежурного по станции (ДСП) метрополитена;</t>
+  </si>
+  <si>
+    <t>дежурного но посту централизации (ДСЦП) метрополитена;</t>
+  </si>
+  <si>
+    <t>заместителем директора метрополитена по безопасности;</t>
+  </si>
+  <si>
+    <t>начальником службы безопасности метрополитена;</t>
+  </si>
+  <si>
+    <t>начальником участка оперативного реагирования метрополитена;</t>
+  </si>
+  <si>
+    <t>начальниками дистанций и начальником дистанции охраны объектов метрополитена;</t>
+  </si>
+  <si>
+    <t>Укажите «ПОСРЕДСТВОМ ЧЕГО ОБЕСПЕЧИВАЕТСЯ АНТИТЕРРОРИСТИЧЕСКАЯ ЗАЩИТА ОБЪЕКТОВ МЕТРОПОЛИТЕНА»?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">организации и (или) осуществления охранной деятельности; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">предотвращения несанкционированного доступа граждан к коммуникациям метрополитена; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">осуществления досмотра ручной клади пассажиров для предотвращения незаконного провоза в транспортных средствах метрополитена предметов и веществ, запрещенных к перевозке в метрополитене Правилами перевозок пассажиров и (или) которые могут быть использованы для совершения акта терроризма; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">соблюдения работниками, посетителями и пассажирами в период нахождения на объектах метрополитена требований безопасности, предусмотренных законодательством; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">проведения профилактических, режимных, организационных и иных мероприятий по предупреждению террористической деятельности и минимизации ее последствий; </t>
+  </si>
+  <si>
+    <t>проведение разъяснительной работы среди посетителей и пассажиров метрополитена в целях предотвращения их участия (пособничества) в террористической деятельности;</t>
+  </si>
+  <si>
+    <t>своевременного выявления и предотвращения попыток незаконно перевезти метрополитеном (пронести на объекты метрополитена) в качестве ручной клади предметы или вещества, запрещенные к перевозке в метрополитене Правилами перевозок пассажиров метрополитеном, а также способные повлиять на состояние антитеррористической защищенности объектов метрополитена;</t>
+  </si>
+  <si>
+    <t>оперативной передачи информации об актах незаконного вмешательства в деятельность метрополитена должностным лицам республиканских органов государственного управления, задействованным в мероприятиях по обеспечению антитеррористической защищенности и по пресечению актов незаконного вмешательства в транспортную деятельность;</t>
+  </si>
+  <si>
+    <t>информированием пассажиров о целях и порядке прохождения досмотра, об их правах и обязанностях, о перечне предметов или веществ, запрещенных к перевозке в метрополитене;</t>
+  </si>
+  <si>
+    <t>Укажите на какое должностное лицо метрополитена возложено руководство деятельностью по обеспечению антитеррористической защиты объектов метрополитена (назовите должность, Ф.И.О., определите по фотографии)</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместителя директора по безопасности; &lt;br /&gt; заместитель директора по безопасности – Плис Вадим Викторович;&lt;img src="images/1.png" /&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместитель директора по персоналу, идеологической и социальной работе -  Воробьёв Юрий Николаевич;&lt;br/&gt;заместитель директора по персоналу, идеологической и социальной работе -  Воробьёв Юрий Николаевич;&lt;img src="images/2.png"&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на начальника службы безопасности метрополитена;&lt;br /&gt;начальник начальника службы безопасности метрополитена -  Басалыга Александр Сергеевич;&lt;img src="images/3.png"&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на директора метрополитена;&lt;br/&gt;Директор - Сотников Владимир Тимофеевич;&lt;img src="images/4.png"&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на главного ревизора по безопасности движения поездов метрополитена;&lt;br/&gt;Главный ревизор по безопасности движения поездов метрополитена – Бартошевич Валерий Алексеевич;&lt;img src="images/5.png"&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместителя начальника – начальника службы безопасности метрополитена;&lt;br/&gt;заместитель начальника - начальник службы безопасности метрополитена – Мясников Александр Альбертович;&lt;img src="images/6.png"&gt;</t>
   </si>
 </sst>
 </file>
@@ -254,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -263,6 +470,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,181 +808,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7FBC5-08C7-4887-B12D-6BA07F591FA8}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="11" width="15.77734375" style="2" customWidth="1"/>
-    <col min="12" max="21" width="15.77734375" style="3" customWidth="1"/>
-    <col min="22" max="29" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="15" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="12" customWidth="1"/>
+    <col min="12" max="21" width="15.77734375" style="13" customWidth="1"/>
+    <col min="22" max="29" width="25.77734375" style="14" customWidth="1"/>
+    <col min="30" max="48" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:48" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+    </row>
+    <row r="2" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+    </row>
+    <row r="3" spans="1:48" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:48" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:48" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:48" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:48" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="13" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="216" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="144" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/вопросы.xlsx
+++ b/вопросы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDCAEB6-5E82-4B22-A5F9-E9E0161B033D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411537DA-C7F3-4FCD-AADB-399D9EF35048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
   <si>
     <t>question</t>
   </si>
@@ -371,22 +371,31 @@
     <t>Укажите на какое должностное лицо метрополитена возложено руководство деятельностью по обеспечению антитеррористической защиты объектов метрополитена (назовите должность, Ф.И.О., определите по фотографии)</t>
   </si>
   <si>
-    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместителя директора по безопасности; &lt;br /&gt; заместитель директора по безопасности – Плис Вадим Викторович;&lt;img src="images/1.png" /&gt;</t>
-  </si>
-  <si>
-    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместитель директора по персоналу, идеологической и социальной работе -  Воробьёв Юрий Николаевич;&lt;br/&gt;заместитель директора по персоналу, идеологической и социальной работе -  Воробьёв Юрий Николаевич;&lt;img src="images/2.png"&gt;</t>
-  </si>
-  <si>
-    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на начальника службы безопасности метрополитена;&lt;br /&gt;начальник начальника службы безопасности метрополитена -  Басалыга Александр Сергеевич;&lt;img src="images/3.png"&gt;</t>
-  </si>
-  <si>
-    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на директора метрополитена;&lt;br/&gt;Директор - Сотников Владимир Тимофеевич;&lt;img src="images/4.png"&gt;</t>
-  </si>
-  <si>
-    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на главного ревизора по безопасности движения поездов метрополитена;&lt;br/&gt;Главный ревизор по безопасности движения поездов метрополитена – Бартошевич Валерий Алексеевич;&lt;img src="images/5.png"&gt;</t>
-  </si>
-  <si>
-    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместителя начальника – начальника службы безопасности метрополитена;&lt;br/&gt;заместитель начальника - начальник службы безопасности метрополитена – Мясников Александр Альбертович;&lt;img src="images/6.png"&gt;</t>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместителя директора по безопасности; &lt;br /&gt; заместитель директора по безопасности – Плис Вадим Викторович;&lt;img src="api/images/1.png" /&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместитель директора по персоналу, идеологической и социальной работе -  Воробьёв Юрий Николаевич;&lt;img src="api/images/2.png"&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на начальника службы безопасности метрополитена;&lt;br /&gt;начальник начальника службы безопасности метрополитена -  Басалыга Александр Сергеевич;&lt;img src="api/images/3.png"&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на директора метрополитена;&lt;br/&gt;Директор - Сотников Владимир Тимофеевич;&lt;img src="api/images/4.png"&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на главного ревизора по безопасности движения поездов метрополитена;&lt;br/&gt;Главный ревизор по безопасности движения поездов метрополитена – Бартошевич Валерий Алексеевич;&lt;img src="api/images/5.png"&gt;</t>
+  </si>
+  <si>
+    <t>общее руководство деятельности по обеспечению антитеррористической защиты объектов метрополитена возлагается на заместителя начальника – начальника службы безопасности метрополитена;&lt;br/&gt;заместитель начальника - начальник службы безопасности метрополитена – Мясников Александр Альбертович;&lt;img src="api/images/6.png"&gt;</t>
+  </si>
+  <si>
+    <t>должность</t>
+  </si>
+  <si>
+    <t>начальник службы</t>
+  </si>
+  <si>
+    <t>заместитель начальника службы - начальник штаба</t>
   </si>
 </sst>
 </file>
@@ -810,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7FBC5-08C7-4887-B12D-6BA07F591FA8}">
   <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +828,8 @@
     <col min="1" max="1" width="24.6640625" style="15" customWidth="1"/>
     <col min="2" max="11" width="15.77734375" style="12" customWidth="1"/>
     <col min="12" max="21" width="15.77734375" style="13" customWidth="1"/>
-    <col min="22" max="29" width="25.77734375" style="14" customWidth="1"/>
+    <col min="22" max="22" width="25.77734375" style="15" customWidth="1"/>
+    <col min="23" max="29" width="25.77734375" style="14" customWidth="1"/>
     <col min="30" max="48" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
@@ -847,7 +857,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="9"/>
+      <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
@@ -939,7 +949,9 @@
       <c r="U2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="11"/>
+      <c r="V2" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
@@ -980,6 +992,9 @@
       <c r="M3" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="V3" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:48" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -994,6 +1009,9 @@
       <c r="M4" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="V4" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:48" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -1008,6 +1026,9 @@
       <c r="M5" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="V5" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:48" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
@@ -1144,9 +1165,6 @@
       <c r="M13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="O13" s="13" t="s">
         <v>81</v>
       </c>
@@ -1155,9 +1173,6 @@
       </c>
       <c r="Q13" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>84</v>
@@ -1250,7 +1265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>

--- a/вопросы.xlsx
+++ b/вопросы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\projects\metro-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411537DA-C7F3-4FCD-AADB-399D9EF35048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D18C70-3B27-4145-BE85-CA08486BBEB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85A81CAA-8331-4FC2-9C69-7ABBE0D6EDF5}"/>
   </bookViews>
@@ -392,10 +392,10 @@
     <t>должность</t>
   </si>
   <si>
-    <t>начальник службы</t>
-  </si>
-  <si>
     <t>заместитель начальника службы - начальник штаба</t>
+  </si>
+  <si>
+    <t>начальник службы,заместитель начальника службы - начальник штаба</t>
   </si>
 </sst>
 </file>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7FBC5-08C7-4887-B12D-6BA07F591FA8}">
   <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +993,7 @@
         <v>30</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1010,7 +1010,7 @@
         <v>35</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="374.4" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>39</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:48" ht="331.2" x14ac:dyDescent="0.3">
